--- a/Cohere eval/evaluation_eng_mar-cohere.xlsx
+++ b/Cohere eval/evaluation_eng_mar-cohere.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -973,7 +973,7 @@
     <t>एनएचकेने सूचित केले की काशिवाजाकी करिवा न्युक्लिय़र पावर प्लांट, नीगाटा प्रान्तात सामान्य रूपाने काम करीत आहे.</t>
   </si>
   <si>
-    <t>सौभाग्य से, ड्रायवर्स आम तयारीशी एक निश्चित पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्मक पर्यायात्</t>
+    <t>सौभाग्यशालीता, ड्रायवर्स आम्हाला सामान्य रूपाने एकच क्षेत्रात ठेवण्याची प्रवृत्ती दाखवतात; त्यामुळे, यातायात धारासामान्य रूपाने काही सामान्य रूपाने एकरूपता असते आणि ती गणितीय रूपाने काही कळण्याची कोशिश केली जाऊ शकते.</t>
   </si>
   <si>
     <t>दुर्भाग्यवश, जैसे-जैसे लिखने के नये तरीके सामने आये, पेंसिल को कम महत्व और उपयोग मिलने लगा.</t>
@@ -1012,7 +1012,7 @@
     <t>डंडी विद्यापीठाच्या प्रोफेसर पॅमेला फर्ग्युसन म्हणतीत, “अखिल भारतीय महासंघाने संदिग्धांच्ी चित्रे/तस्वीरे प्रकाशित करून ते दारुण दुर्घटने घडू लागली आहेत.”</t>
   </si>
   <si>
-    <t>गोटाला पहल्या काळात १०,००० वर्षे पूर्वी ईरानातील जाग्रोस पर्वतात घराण्यात आल्या म्हणून वाटेल.</t>
+    <t>दिसावी हजरात वर्षे पूर्वीर, ईरानातील जाग्रोस पर्वतात बकर्यांचा प्रथम घराणीकरण झाला होता.</t>
   </si>
   <si>
     <t>पाण्यातील उंच-नीचाच्या कारणाने प्रतिसादात्मक प्रवाह काही गाढवान्नी केंद्रित होतो आणि तेथे गाढ्या पाण्यासाठी तेज धारा स्वरूप घेऊ शकते.</t>
@@ -1093,7 +1093,7 @@
     <t>त्याचे बाहेर पाठवण्याचा एकमेव तरीका त्याला सामान म्हणून पाठविणे होता. विमान सेवा नियम कधीही सामान यादृच्छ्यापणे पाठवू शहाणत नाहीत, त्यामुळे तुम्ही येथे येतात.</t>
   </si>
   <si>
-    <t>त्याने गॉसिपाला प्रमाणे ह्या अंदाजावारीसंबंधी काहीही म्हणाले नाही.</t>
+    <t>त्याने गॉसिपाला "राजनीतिक गपशप आणि बेवकूफी" म्हणून संबोधित केली.</t>
   </si>
   <si>
     <t>आसुन्सियोन ची नींव झाल्यावरून १५३७ पेराग्वे आपल्यालागूर भारतीय चरित्र आणि आभास सुरक्षित ठेवण्याचे काम केला आहे.</t>
@@ -1141,7 +1141,7 @@
     <t>पिट्सबर्ग, पेन्सिलवेनियाच्या चिल्ड्रेन हॉस्पिटलमध्ये काम करणार्या डॉक्टरवर्षी बुधवारी महिना काराच्या डिक्कीत माताजीचे शव मिळविण्यावर ओहायोच्या अधिकारी मानवताविरुध्द हत्याचा आरोप ठेवणार आहेत.</t>
   </si>
   <si>
-    <t>पुर्वीकालिक वार्तानुसार विमानाला आपातस्थितीच्या ल्याण्डिंगास विरोध करण्यामागेल्यावर त्याला आता अफगाणिस्तानातून वापरता येईल.</t>
+    <t>प्रारंभिक रिपोर्ट्स म्हणतात की विमानाला उरुम्चीमध्ये आपात ल्याण्डिंग करायची अनुमती मिळाली नाही यामुळे तो पुन्हा अफ़गानिस्तान कारित कार्यान्वित करण्यात आला.</t>
   </si>
   <si>
     <t>१६२४ मध्ये डच ईस्ट इंडिया कंपनी स्वातंत्र्यातील ताइवानात आधार स्थापन केला आणि आदिवासी अन्न उत्पादन प्रणालीत बदलाव सुरु केला आणि चीनी कामगारांना त्याच्या तांदुळा आणि शक्कराच्या वाटीकारांवर काम करायचे म्हणून नेमले.</t>
@@ -1156,13 +1156,13 @@
     <t>विशेषतः, मान्या जाते कि कोणी कैसे झूठ बोलला आहे हे साच म्हणून साबित करू शकतो त्याच्या माइक्रो एक्सप्रेशन्स कालज करून.</t>
   </si>
   <si>
-    <t>सहायक कीट-नाश परीक्षणात भाग घेणारे सारे शूटर रेंजर्स द्वारे नियंत्रित व पर्यवेक्खित होते, कारण परीक्षणाची निरंतर निगरानी होती व त्याच्या प्रभावाची मूल्यांकन केली जात.</t>
+    <t>सहायक कीट-नाश परीक्षणात भाग घेणारे साफकर्तेयांवर रेंजर्स द्वारे नियंत्रणात असण्यात योजना होती, कारण परीक्षणाची निरीक्षणे केली जात होती आणि त्याची कार्यक्षमता मूल्यांकित केली जात होती.</t>
   </si>
   <si>
     <t>तुर्कीमधील तिसरी मोठी शहर इझमीर असून त्याची भौत काही लाख लोक आहेत, इझमीर इंस्तांबूल नंतर दुसरा मोठा बंदरगाह आणि खरा उत्तम परिवहन केंद्र आहे.</t>
   </si>
   <si>
-    <t>त्याच्या प्रवासाच्या दरम्यान, इवासाकीला अनेकGeleदात संकट येत होता.</t>
+    <t>त्याच्या प्रवासाच्या दरम्यान, इवासाकी सामुदायिक समस्या सोडविण्यासाठी सामीना आले.</t>
   </si>
   <si>
     <t>ही अल्पाइन स्टाइल स्की टूरिंग व Mountaineering संबंधित आहे, पण त्याचे संबंधित नसावेत. Mountaineering खालीस कंदाळी भूमीवर केली जाते व त्यासाठी खासकर कठीण स्कीस व जूने आवश्यक असतात.</t>
@@ -1189,7 +1189,7 @@
     <t>शीघ्र ही युद्धविराम के बाद, ब्रिटेन ने जर्मनी की नौसैनिक नाकेबंदी शुरू की.</t>
   </si>
   <si>
-    <t>व्हॉयाजरस ज्या लिंग परिवर्तन सर्जरी करून घेणार आहेत त्याला वापासीत सार्वकालिक दस्तावेज साठवित असावेत.</t>
+    <t>वॉयेजर्स जो विदेश में लिंग परिवर्तन शल्यचिकित्सा कराना चाहते हैं, उन्हें सुनिश्चित करना चाहिए कि उनके पास वापसी यात्रा के लिए मान्य दस्तावेज हैं।</t>
   </si>
   <si>
     <t>पिछले महिन्यात राष्ट्रपतीय आयोगाने सुचवित केले की पूर्वी सीईपी यांच्या त्यागपत्राची पैकीजातील एक उपाय आहे जेणेकरून देशाला नवीन निवडणुकीच्या दिशेने जाण्यात येईल.</t>
@@ -1228,7 +1228,7 @@
     <t>इतिहासकारांनी FBIच्या पुर्वील करारी निंदा केली क्यारण त्यांनी संसाधने त्या मामल्यावर केन्द्रित केली होती ज्याची सोडवायची सरळ होती, विशेषत: चोरी केलेल्या काराच्या मामल्यावर, या उद्देशासाठी की त्या विभागाची यशगाथा वाढेल.</t>
   </si>
   <si>
-    <t>करी मांसाहारी वेजाहारी भोजनासाठी व्यंजन आहे ज्यामध्ये वादीलांचा मिश्रण केला जातो.</t>
+    <t>करी हे जड़ीबूटी आणि मसाल्यांवर आधारित डिश आहे ज्यामध्ये मासेच किंवा तरकारीचा समावेश होतो.</t>
   </si>
   <si>
     <t>बाइनरी नंबर मात्र दो मानांमध्ये उभा राहू शकतो तेथे ते मान ० व १ असून, त्या नंबरांना बाइनरी अंक म्हणतात आणि कंप्यूटर संशोधनात त्या नंबरांना बिट्स म्हणतात.</t>
@@ -1303,7 +1303,7 @@
     <t>मिसरियान्नी तिसर्या शतकातून पुरेविल्यानी महान पिरामिड ही फेरावा मरणाला मान करण्यासाठी बणविलेल्या पिरामिड संरचनातील एक आहे.</t>
   </si>
   <si>
-    <t>एका काळात, अरिस्टार्कस म्हणाला की सौर मण्डल सूर्यावरील घूमतो.</t>
+    <t>हजारो वर्षे पहिल्या, ग्रीक वैज्ञानिक आरिस्टार्चस म्हणाला की सौर मण्डल सूर्यावर्तुल आहे.</t>
   </si>
   <si>
     <t>पण ASUS यांनी चीन गणराज्याच्या कार्यकारी परिषदेकडून २००७ ताईवान सस्टेनेबल पुरस्कार जेत केला त्यानंतर लेपटॉप कंप्यूटराचा उपभोक्ता बाजार जास्त वैविध्यपूर्ण आणि परिवर्तित होईल.</t>
@@ -1974,7 +1974,7 @@
         <v>319</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.043389519964411</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>332</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.01696772192530609</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>359</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>0.02302676613984314</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2758,7 +2758,7 @@
         <v>375</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>0.01550550784373247</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>380</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.01082505792167168</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>382</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>0.02573285025273419</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>391</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.01119961714552871</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3164,7 +3164,7 @@
         <v>404</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.1879831764733509</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>429</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>0.02004499497906907</v>
       </c>
     </row>
     <row r="128" spans="1:4">
